--- a/Lab C Basic/Assignment_List.xlsx
+++ b/Lab C Basic/Assignment_List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\CLAB\Lab C Basic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3736FB0D-B535-42AF-9590-EACA431514C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment List" sheetId="2" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Assignment List'!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Lookup!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -469,16 +475,19 @@
   </si>
   <si>
     <t>Reverse a string</t>
+  </si>
+  <si>
+    <t>sum(H4,H55)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="3" tint="0.14996795556505021"/>
@@ -528,13 +537,27 @@
       <name val="Franklin Gothic Medium"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="0.14996795556505021"/>
+      <name val="Franklin Gothic Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -574,7 +597,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,8 +649,47 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -638,18 +700,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="32">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -665,16 +733,16 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -693,53 +761,53 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -753,7 +821,7 @@
         <name val="Franklin Gothic Medium"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -790,10 +858,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Warehouse Inventory" defaultPivotStyle="PivotStyleMedium2">
-    <tableStyle name="Warehouse Inventory" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+    <tableStyle name="Warehouse Inventory" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -808,7 +876,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Huy Nguyen Thanh" refreshedDate="42360.130338425923" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Huy Nguyen Thanh" refreshedDate="42360.130338425923" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="103" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="AssignmentTable"/>
   </cacheSource>
@@ -1886,7 +1954,181 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="TOTAL" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="LAB" colHeaderCaption="TYPE">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="TOTAL" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="LAB" colHeaderCaption="TYPE">
+  <location ref="B7:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="104">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="ASSIGNMENTS" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="TOTAL" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="LAB" colHeaderCaption="TYPE">
   <location ref="B19:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2048,7 +2290,7 @@
     <dataField name="LOCs" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2057,12 +2299,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="TOTAL" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="LAB" colHeaderCaption="TYPE">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="TOTAL" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="LAB" colHeaderCaption="TYPE">
   <location ref="B13:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2228,197 +2473,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="TOTAL" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="LAB" colHeaderCaption="TYPE">
-  <location ref="B7:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="104">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="ASSIGNMENTS" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AssignmentTable" displayName="AssignmentTable" ref="B3:H106" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
-  <autoFilter ref="B3:H106"/>
-  <sortState ref="D3:I12">
-    <sortCondition ref="F2:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AssignmentTable" displayName="AssignmentTable" ref="B3:H106" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+  <autoFilter ref="B3:H106" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B4:H106">
+    <sortCondition descending="1" ref="H3:H106"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="13" name="ID" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ID" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="LAB CODE" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="1" name="ASSIGNMENT CODE" totalsRowLabel="Totals" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="12" name="DESCRIPTION" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" name="ASSIGNMENT TYPE" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" name="DURATION (SLOTs)" dataDxfId="13"/>
-    <tableColumn id="8" name="LOCs" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LAB CODE" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ASSIGNMENT CODE" totalsRowLabel="Totals" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="DESCRIPTION" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ASSIGNMENT TYPE" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DURATION (SLOTs)" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LOCs" dataDxfId="13" totalsRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Warehouse Inventory" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2430,12 +2507,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="LabLookupTable" displayName="LabLookupTable" ref="B3:D8" headerRowDxfId="9">
-  <autoFilter ref="B3:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="LabLookupTable" displayName="LabLookupTable" ref="B3:D8" headerRowDxfId="10">
+  <autoFilter ref="B3:D8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Lab  Code" totalsRowLabel="Total" dataDxfId="8"/>
-    <tableColumn id="2" name="Content" dataDxfId="7"/>
-    <tableColumn id="3" name="LOC" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Lab  Code" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Content" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LOC" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Warehouse Inventory" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2447,12 +2524,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="AssignmentLookupTable" displayName="AssignmentLookupTable" ref="B11:D13" headerRowDxfId="4">
-  <autoFilter ref="B11:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssignmentLookupTable" displayName="AssignmentLookupTable" ref="B11:D13" headerRowDxfId="5">
+  <autoFilter ref="B11:D13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Assignment Type" totalsRowLabel="Total" dataDxfId="3"/>
-    <tableColumn id="2" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" name="SLOT" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Assignment Type" totalsRowLabel="Total" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="SLOT" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Warehouse Inventory" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2689,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="shtInventoryList">
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -2697,43 +2774,51 @@
   <dimension ref="B1:K106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H18"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="61.125" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="61.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="8.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="17.25" customWidth="1"/>
-    <col min="13" max="14" width="18.125" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
+    <col min="12" max="12" width="17.19921875" customWidth="1"/>
+    <col min="13" max="14" width="18.09765625" customWidth="1"/>
+    <col min="15" max="15" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="33.75" thickBot="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:11" ht="32.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="3" spans="2:11" ht="27">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H2" t="e">
+        <f>sum</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>90</v>
       </c>
@@ -2756,7 +2841,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>1</v>
@@ -2765,10 +2850,10 @@
         <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>85</v>
@@ -2777,10 +2862,14 @@
         <v>3</v>
       </c>
       <c r="H4" s="13">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+        <v>242</v>
+      </c>
+      <c r="J4">
+        <f>SUM(H4:H55)</f>
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>2</v>
@@ -2789,34 +2878,38 @@
         <v>58</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G5" s="13">
+        <v>5</v>
+      </c>
+      <c r="H5" s="13">
+        <v>220</v>
+      </c>
+      <c r="J5">
+        <f>SUM(H13:H16,H18,H19,H20,H25,H27,H30,H34,H39:H41)</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>3</v>
       </c>
-      <c r="H5" s="13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>3</v>
-      </c>
       <c r="C6" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>85</v>
@@ -2825,10 +2918,13 @@
         <v>5</v>
       </c>
       <c r="H6" s="13">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>200</v>
+      </c>
+      <c r="J6">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>4</v>
@@ -2837,58 +2933,58 @@
         <v>58</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="20">
+        <v>3</v>
+      </c>
+      <c r="H8" s="20">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="13">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>85</v>
@@ -2900,31 +2996,31 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="12">
+    <row r="10" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="C10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="13">
-        <v>3</v>
-      </c>
-      <c r="H10" s="13">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="G10" s="20">
+        <v>4</v>
+      </c>
+      <c r="H10" s="20">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>8</v>
@@ -2933,22 +3029,22 @@
         <v>58</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="13">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>9</v>
@@ -2957,238 +3053,238 @@
         <v>58</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G12" s="13">
+        <v>4</v>
+      </c>
+      <c r="H12" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="20">
         <v>3</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="20">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+    <row r="14" spans="2:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="12">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="13">
-        <v>3</v>
-      </c>
-      <c r="H13" s="13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="13">
-        <v>3</v>
-      </c>
-      <c r="H14" s="13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>12</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="13">
-        <v>4</v>
-      </c>
-      <c r="H15" s="13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>13</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="13">
-        <v>4</v>
-      </c>
-      <c r="H16" s="13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>14</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" s="13">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="19">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>15</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="C18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="13">
-        <v>5</v>
-      </c>
-      <c r="H18" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="12">
+      <c r="G18" s="20">
+        <v>3</v>
+      </c>
+      <c r="H18" s="20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>16</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="C19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="27">
+        <v>4</v>
+      </c>
+      <c r="H19" s="27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="22">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>18</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>17</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>18</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="H21" s="23">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>19</v>
@@ -3197,10 +3293,10 @@
         <v>58</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>84</v>
@@ -3209,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>20</v>
@@ -3221,10 +3317,10 @@
         <v>58</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>84</v>
@@ -3233,10 +3329,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>21</v>
@@ -3245,94 +3341,94 @@
         <v>58</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="13">
+        <v>2</v>
+      </c>
+      <c r="H24" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>22</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="20">
         <v>1</v>
       </c>
-      <c r="H24" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>22</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="H25" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>23</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>23</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="31">
+        <v>2</v>
+      </c>
+      <c r="H26" s="31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>24</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>24</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="G27" s="20">
+        <v>2</v>
+      </c>
+      <c r="H27" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>25</v>
@@ -3341,10 +3437,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>84</v>
@@ -3353,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>26</v>
@@ -3365,46 +3461,46 @@
         <v>58</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G29" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="19">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>27</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="C30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="13">
-        <v>2</v>
-      </c>
-      <c r="H30" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>28</v>
@@ -3413,22 +3509,22 @@
         <v>58</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G31" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>29</v>
@@ -3437,10 +3533,10 @@
         <v>58</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>84</v>
@@ -3449,10 +3545,10 @@
         <v>1</v>
       </c>
       <c r="H32" s="13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>30</v>
@@ -3461,10 +3557,10 @@
         <v>58</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>84</v>
@@ -3473,58 +3569,58 @@
         <v>1</v>
       </c>
       <c r="H33" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="19">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>31</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
+      <c r="H34" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
+        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
+        <v>32</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>31</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="13">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="12">
-        <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
-        <v>32</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="E35" s="12" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>84</v>
       </c>
       <c r="G35" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="13">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>33</v>
@@ -3533,10 +3629,10 @@
         <v>58</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>84</v>
@@ -3545,10 +3641,10 @@
         <v>1</v>
       </c>
       <c r="H36" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>34</v>
@@ -3557,10 +3653,10 @@
         <v>58</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>84</v>
@@ -3569,10 +3665,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="13">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" hidden="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>35</v>
@@ -3596,79 +3692,79 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="12">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="19">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>36</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="C39" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="20">
         <v>1</v>
       </c>
-      <c r="H39" s="13">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="12">
+      <c r="H39" s="20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="19">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>37</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="C40" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="20">
         <v>1</v>
       </c>
-      <c r="H40" s="13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="12">
+      <c r="H40" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="19">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>38</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="C41" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="H41" s="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>39</v>
@@ -3677,10 +3773,10 @@
         <v>58</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>84</v>
@@ -3689,10 +3785,10 @@
         <v>1</v>
       </c>
       <c r="H42" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>40</v>
@@ -3701,10 +3797,10 @@
         <v>58</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>84</v>
@@ -3713,10 +3809,10 @@
         <v>1</v>
       </c>
       <c r="H43" s="13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>41</v>
@@ -3725,10 +3821,10 @@
         <v>58</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>84</v>
@@ -3737,10 +3833,10 @@
         <v>1</v>
       </c>
       <c r="H44" s="13">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>42</v>
@@ -3749,10 +3845,10 @@
         <v>58</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>84</v>
@@ -3761,10 +3857,10 @@
         <v>1</v>
       </c>
       <c r="H45" s="13">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>43</v>
@@ -3773,10 +3869,10 @@
         <v>58</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>84</v>
@@ -3785,10 +3881,10 @@
         <v>1</v>
       </c>
       <c r="H46" s="13">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>44</v>
@@ -3797,10 +3893,10 @@
         <v>58</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>84</v>
@@ -3809,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="H47" s="13">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" hidden="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>45</v>
@@ -3836,7 +3932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>46</v>
@@ -3845,10 +3941,10 @@
         <v>58</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>84</v>
@@ -3857,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="H49" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>47</v>
@@ -3869,10 +3965,10 @@
         <v>58</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>84</v>
@@ -3881,10 +3977,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="13">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>48</v>
@@ -3893,10 +3989,10 @@
         <v>58</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>84</v>
@@ -3905,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="13">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>49</v>
@@ -3917,10 +4013,10 @@
         <v>58</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>84</v>
@@ -3929,10 +4025,10 @@
         <v>1</v>
       </c>
       <c r="H52" s="13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>50</v>
@@ -3941,10 +4037,10 @@
         <v>58</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>84</v>
@@ -3953,10 +4049,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>51</v>
@@ -3965,10 +4061,10 @@
         <v>58</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>84</v>
@@ -3977,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="13">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="12">
         <f>ROW()-ROW(AssignmentTable[[#Headers],[ID]])</f>
         <v>52</v>
@@ -3989,10 +4085,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>84</v>
@@ -4001,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="H55" s="13">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="14"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -4013,7 +4109,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="14"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -4022,7 +4118,7 @@
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="14"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -4031,7 +4127,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="14"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -4040,7 +4136,7 @@
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="14"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -4049,7 +4145,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="14"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -4058,7 +4154,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="14"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -4067,7 +4163,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="14"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -4076,7 +4172,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="14"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -4085,7 +4181,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="14"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -4094,7 +4190,7 @@
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="14"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -4103,7 +4199,7 @@
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="14"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -4112,7 +4208,7 @@
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="14"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -4121,7 +4217,7 @@
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="14"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -4130,7 +4226,7 @@
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="14"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -4139,7 +4235,7 @@
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="14"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -4148,7 +4244,7 @@
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="14"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -4157,7 +4253,7 @@
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="14"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -4166,7 +4262,7 @@
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="14"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -4175,7 +4271,7 @@
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="14"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -4184,7 +4280,7 @@
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="14"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -4193,7 +4289,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="14"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -4202,7 +4298,7 @@
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="14"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -4211,7 +4307,7 @@
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="14"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -4220,7 +4316,7 @@
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="14"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -4229,7 +4325,7 @@
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="14"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -4238,7 +4334,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="14"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -4247,7 +4343,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="14"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -4256,7 +4352,7 @@
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="14"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -4265,7 +4361,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -4274,7 +4370,7 @@
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="14"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -4283,7 +4379,7 @@
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B87" s="14"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -4292,7 +4388,7 @@
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B88" s="14"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -4301,7 +4397,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B89" s="14"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -4310,7 +4406,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -4319,7 +4415,7 @@
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -4328,7 +4424,7 @@
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
     </row>
-    <row r="92" spans="2:8">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -4337,7 +4433,7 @@
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
     </row>
-    <row r="93" spans="2:8">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B93" s="14"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -4346,7 +4442,7 @@
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
     </row>
-    <row r="94" spans="2:8">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B94" s="14"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -4355,7 +4451,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="14"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -4364,7 +4460,7 @@
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B96" s="14"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -4373,7 +4469,7 @@
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B97" s="14"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -4382,7 +4478,7 @@
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B98" s="14"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -4391,7 +4487,7 @@
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="14"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -4400,7 +4496,7 @@
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
     </row>
-    <row r="100" spans="2:8">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B100" s="14"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -4409,7 +4505,7 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B101" s="14"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -4418,7 +4514,7 @@
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
     </row>
-    <row r="102" spans="2:8">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" s="14"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -4427,7 +4523,7 @@
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
     </row>
-    <row r="103" spans="2:8">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B103" s="14"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
@@ -4436,7 +4532,7 @@
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B104" s="14"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -4445,7 +4541,7 @@
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B105" s="14"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -4454,7 +4550,7 @@
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B106" s="14"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -4468,15 +4564,15 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:H106">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>"If(blnBinNo=""True"")"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C106" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>LabLookup</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F106" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>AssignmentLookup</formula1>
     </dataValidation>
   </dataValidations>
@@ -4493,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -4503,33 +4599,33 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="8" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="8" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="33.75" thickBot="1">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:10" ht="32.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="21">
+    <row r="2" spans="2:10" ht="21.6" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
@@ -4538,7 +4634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="21">
+    <row r="3" spans="2:10" ht="21.6" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>88</v>
       </c>
@@ -4547,7 +4643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="21">
+    <row r="4" spans="2:10" ht="21.6" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>87</v>
       </c>
@@ -4556,7 +4652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>141</v>
       </c>
@@ -4564,7 +4660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>74</v>
       </c>
@@ -4578,7 +4674,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>58</v>
       </c>
@@ -4592,7 +4688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>61</v>
       </c>
@@ -4606,7 +4702,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>143</v>
       </c>
@@ -4620,7 +4716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
         <v>144</v>
       </c>
@@ -4628,7 +4724,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>74</v>
       </c>
@@ -4642,7 +4738,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>58</v>
       </c>
@@ -4656,7 +4752,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>61</v>
       </c>
@@ -4670,7 +4766,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>143</v>
       </c>
@@ -4684,7 +4780,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>145</v>
       </c>
@@ -4692,7 +4788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>74</v>
       </c>
@@ -4706,7 +4802,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>58</v>
       </c>
@@ -4720,7 +4816,7 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
@@ -4734,7 +4830,7 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>143</v>
       </c>
@@ -4757,7 +4853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="shtBinLookup">
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -4768,27 +4864,27 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="54" customHeight="1" thickBot="1">
+    <row r="1" spans="2:4" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:4" ht="16.5" customHeight="1">
+    <row r="2" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="16.5" customHeight="1">
+    <row r="3" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>75</v>
       </c>
@@ -4799,7 +4895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="16.5" customHeight="1">
+    <row r="4" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
@@ -4810,7 +4906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="16.5" customHeight="1">
+    <row r="5" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>61</v>
       </c>
@@ -4821,7 +4917,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="16.5" customHeight="1">
+    <row r="6" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>64</v>
       </c>
@@ -4832,7 +4928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="16.5" customHeight="1">
+    <row r="7" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>67</v>
       </c>
@@ -4843,7 +4939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="16.5" customHeight="1">
+    <row r="8" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>70</v>
       </c>
@@ -4854,12 +4950,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="16.5" customHeight="1">
+    <row r="10" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="16.5" customHeight="1">
+    <row r="11" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>76</v>
       </c>
@@ -4870,7 +4966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="16.5" customHeight="1">
+    <row r="12" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>84</v>
       </c>
@@ -4881,7 +4977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="16.5" customHeight="1">
+    <row r="13" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>85</v>
       </c>
